--- a/2020-07-15/web_tables/mae_investment_wide.xlsx
+++ b/2020-07-15/web_tables/mae_investment_wide.xlsx
@@ -391,16 +391,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>2.8428</v>
+        <v>2.5939</v>
       </c>
       <c r="C2">
-        <v>5.3067</v>
+        <v>5.0109</v>
       </c>
       <c r="D2">
-        <v>2.6334</v>
+        <v>2.4143</v>
       </c>
       <c r="E2">
-        <v>2.8641</v>
+        <v>2.6217</v>
       </c>
     </row>
     <row r="3">
@@ -410,16 +410,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>3.0569</v>
+        <v>2.6916</v>
       </c>
       <c r="C3">
-        <v>4.7055</v>
+        <v>4.8645</v>
       </c>
       <c r="D3">
-        <v>3.3168</v>
+        <v>2.9144</v>
       </c>
       <c r="E3">
-        <v>3.3299</v>
+        <v>2.9323</v>
       </c>
     </row>
     <row r="4">
@@ -429,16 +429,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>3.7439</v>
+        <v>3.2091</v>
       </c>
       <c r="C4">
-        <v>5.0091</v>
+        <v>4.5338</v>
       </c>
       <c r="D4">
-        <v>4.3667</v>
+        <v>3.7429</v>
       </c>
       <c r="E4">
-        <v>5.0375</v>
+        <v>4.319</v>
       </c>
     </row>
     <row r="5">
@@ -448,16 +448,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>3.2601</v>
+        <v>2.8372</v>
       </c>
       <c r="C5">
-        <v>4.766</v>
+        <v>4.2731</v>
       </c>
       <c r="D5">
-        <v>4.4164</v>
+        <v>3.8283</v>
       </c>
       <c r="E5">
-        <v>5.0225</v>
+        <v>4.3518</v>
       </c>
     </row>
   </sheetData>
